--- a/assets/documents/Aditivo das hastes.xlsx
+++ b/assets/documents/Aditivo das hastes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29819"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,21 @@
   <sheets>
     <sheet name="Planilha2" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,61 +38,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
+    <t>CONJUNTO DE ANCORAGEM DE ESTAIS</t>
+  </si>
+  <si>
     <t>P0</t>
   </si>
   <si>
-    <t>CONJUNTO DE ANCORAGEM DE ESTAIS</t>
+    <t>SALDO ADITIVO</t>
+  </si>
+  <si>
+    <t>QTD DE HASTES</t>
   </si>
   <si>
     <t>QTD DE TORRES ATENDIDAS</t>
   </si>
   <si>
-    <t>SALDO ADITIVO</t>
-  </si>
-  <si>
-    <t>QTD DE HASTES</t>
+    <t>Executada</t>
+  </si>
+  <si>
+    <t>Estai</t>
+  </si>
+  <si>
+    <t>Trecho</t>
+  </si>
+  <si>
+    <t>Total haste</t>
+  </si>
+  <si>
+    <t>QDT Torre executada</t>
+  </si>
+  <si>
+    <t>42/3</t>
+  </si>
+  <si>
+    <t>Eixo leste entre SE-E4 x E6</t>
+  </si>
+  <si>
+    <t>46/2</t>
+  </si>
+  <si>
+    <t>50/1</t>
+  </si>
+  <si>
+    <t>51/2</t>
+  </si>
+  <si>
+    <t>Eixo norte SE-N3 x BNO</t>
+  </si>
+  <si>
+    <t>N° haste</t>
   </si>
   <si>
     <t xml:space="preserve">Atual </t>
   </si>
   <si>
-    <t>N° haste</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proximo ano </t>
-  </si>
-  <si>
-    <t>Executada</t>
-  </si>
-  <si>
-    <t>42/3</t>
-  </si>
-  <si>
-    <t>46/2</t>
-  </si>
-  <si>
-    <t>50/1</t>
-  </si>
-  <si>
-    <t>51/2</t>
-  </si>
-  <si>
-    <t>Eixo norte SE-N3 x BNO</t>
-  </si>
-  <si>
-    <t>Eixo leste entre SE-E4 x E6</t>
-  </si>
-  <si>
-    <t>Estai</t>
-  </si>
-  <si>
-    <t>Trecho</t>
-  </si>
-  <si>
-    <t>Total haste</t>
-  </si>
-  <si>
-    <t>QDT Torre executada</t>
   </si>
 </sst>
 </file>
@@ -89,9 +100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +213,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -216,21 +227,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -261,33 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -304,7 +315,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -606,176 +617,176 @@
       <selection activeCell="C12" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="23">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="10">
         <v>1777.14</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="10">
         <v>162810.47</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="11">
         <f>C4/B4</f>
         <v>91.613755809896801</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="24">
+      <c r="E4" s="4"/>
+      <c r="F4" s="11">
         <f>D4/4</f>
         <v>22.9034389524742</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="7" spans="2:6" ht="28.9">
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="15">
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="23">
         <f>SUM(C8:C11)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="18">
         <f>E8/4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5">
         <v>46031</v>
       </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="26">
         <f>SUM(C12:C13)</f>
         <v>8</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="21">
         <f>E12/4</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+    <row r="13" spans="2:6">
+      <c r="B13" s="7">
         <v>46059</v>
       </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>36</v>
@@ -787,20 +798,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>

--- a/assets/documents/Aditivo das hastes.xlsx
+++ b/assets/documents/Aditivo das hastes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriano Oliveira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69f616c988c69463/Acervo/dev/projects/presentation/assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FEF2DA-B2C3-42A9-8557-3F20783A5678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{B5FEF2DA-B2C3-42A9-8557-3F20783A5678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5633B021-CC13-4E36-9616-55ADAAC20F0E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D56FC61F-0372-495A-BB64-AA2ABC85AB80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D56FC61F-0372-495A-BB64-AA2ABC85AB80}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>CONJUNTO DE ANCORAGEM DE ESTAIS</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t xml:space="preserve">Proximo ano </t>
+  </si>
+  <si>
+    <t>9/1</t>
+  </si>
+  <si>
+    <t>6/2</t>
   </si>
 </sst>
 </file>
@@ -100,9 +106,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,9 +219,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,32 +235,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,9 +295,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -315,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,7 +357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -461,7 +463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,166 +616,166 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C11:C12"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="10">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="7">
         <v>1777.14</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>162810.47</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <f>C4/B4</f>
         <v>91.613755809896801</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <f>D4/4</f>
         <v>22.9034389524742</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="7" spans="2:6" ht="28.9">
-      <c r="B7" s="8" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <f>SUM(C8:C11)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="15">
         <f>E8/4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="4" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="4" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="5">
-        <v>46031</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="23">
         <f>SUM(C12:C13)</f>
         <v>8</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <f>E12/4</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="7">
-        <v>46059</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="15" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -784,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -798,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -809,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
